--- a/serialization_results.xlsx
+++ b/serialization_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\susu\Research-of-data-serialization-methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8532A90F-2810-49F4-8F8B-EFF11B15291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB39E9-F51B-4113-B060-6A5377577FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -37,13 +37,16 @@
   <x:si>
     <x:t>JSON</x:t>
   </x:si>
+  <x:si>
+    <x:t>BIN</x:t>
+  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="164" formatCode="0.000000"/>
   </x:numFmts>
   <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
@@ -70,11 +73,15 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -379,18 +386,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
+  <x:dimension ref="A1:D1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D6" sqref="D6"/>
+      <x:selection activeCell="B11" sqref="B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="21.777344" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="19.21875" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.777344" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.21875" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.777344" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -400,53 +407,221 @@
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="D1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C2" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>34.5158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="C2" s="1">
+        <x:v>125.9977</x:v>
+      </x:c>
+      <x:c r="D2" s="1">
+        <x:v>43.8499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C3" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="0">
-        <x:v>28.6345</x:v>
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C3" s="1">
+        <x:v>3.828</x:v>
+      </x:c>
+      <x:c r="D3" s="1">
+        <x:v>6.4075</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C4" s="1">
+        <x:v>63.0107</x:v>
+      </x:c>
+      <x:c r="D4" s="1">
+        <x:v>56.0464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0">
+      <x:c r="B5" s="0">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="C5" s="1">
+        <x:v>136.9661</x:v>
+      </x:c>
+      <x:c r="D5" s="1">
+        <x:v>74.695</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="0">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C6" s="1">
+        <x:v>4.1673</x:v>
+      </x:c>
+      <x:c r="D6" s="1">
+        <x:v>14.1605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="0">
+        <x:v>1254</x:v>
+      </x:c>
+      <x:c r="C7" s="1">
+        <x:v>80.593</x:v>
+      </x:c>
+      <x:c r="D7" s="1">
+        <x:v>43.8818</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0">
         <x:v>380</x:v>
       </x:c>
-      <x:c r="C4" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="0">
-        <x:v>31.3067</x:v>
+      <x:c r="C8" s="1">
+        <x:v>124.175</x:v>
+      </x:c>
+      <x:c r="D8" s="1">
+        <x:v>36.1575</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="0">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C9" s="1">
+        <x:v>3.5021</x:v>
+      </x:c>
+      <x:c r="D9" s="1">
+        <x:v>6.4213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="0">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="C10" s="1">
+        <x:v>44.559</x:v>
+      </x:c>
+      <x:c r="D10" s="1">
+        <x:v>15.3378</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="0">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C11" s="1">
+        <x:v>115.1697</x:v>
+      </x:c>
+      <x:c r="D11" s="1">
+        <x:v>37.7123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B12" s="0">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C12" s="1">
+        <x:v>4.1566</x:v>
+      </x:c>
+      <x:c r="D12" s="1">
+        <x:v>3.7436</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B13" s="0">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="C13" s="1">
+        <x:v>53.0933</x:v>
+      </x:c>
+      <x:c r="D13" s="1">
+        <x:v>70.1059</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B14" s="0">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C14" s="1">
+        <x:v>118.1541</x:v>
+      </x:c>
+      <x:c r="D14" s="1">
+        <x:v>65.0152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B15" s="0">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C15" s="1">
+        <x:v>3.9459</x:v>
+      </x:c>
+      <x:c r="D15" s="1">
+        <x:v>5.3768</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B16" s="0">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="C16" s="1">
+        <x:v>73.2092</x:v>
+      </x:c>
+      <x:c r="D16" s="1">
+        <x:v>20.935</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/serialization_results.xlsx
+++ b/serialization_results.xlsx
@@ -5,18 +5,18 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\susu\Research-of-data-serialization-methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\Research-of-data-serialization-methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB39E9-F51B-4113-B060-6A5377577FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FBF12D-D4EA-43D5-AE28-73C369D08F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Serialization Results" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="0" concurrentCalc="0"/>
 </x:workbook>
 </file>
 
@@ -39,6 +39,9 @@
   </x:si>
   <x:si>
     <x:t>BIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xml</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -389,18 +392,18 @@
   <x:dimension ref="A1:D1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B11" sqref="B11"/>
+      <x:selection activeCell="C23" sqref="C23"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.777344" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="19.21875" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.777344" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="21.710938" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="19.285156" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.710938" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="22.285156" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -419,13 +422,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>679</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>125.9977</x:v>
+        <x:v>120.2617</x:v>
       </x:c>
       <x:c r="D2" s="1">
-        <x:v>43.8499</x:v>
+        <x:v>73.8662</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -436,24 +439,24 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="C3" s="1">
-        <x:v>3.828</x:v>
+        <x:v>6.018</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>6.4075</x:v>
+        <x:v>16.1179</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>1014</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="C4" s="1">
-        <x:v>63.0107</x:v>
+        <x:v>57.6677</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>56.0464</x:v>
+        <x:v>40.6268</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -461,13 +464,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>679</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C5" s="1">
-        <x:v>136.9661</x:v>
+        <x:v>97.6031</x:v>
       </x:c>
       <x:c r="D5" s="1">
-        <x:v>74.695</x:v>
+        <x:v>44.7768</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -478,150 +481,24 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="C6" s="1">
-        <x:v>4.1673</x:v>
+        <x:v>2.3993</x:v>
       </x:c>
       <x:c r="D6" s="1">
-        <x:v>14.1605</x:v>
+        <x:v>12.3888</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>1254</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="C7" s="1">
-        <x:v>80.593</x:v>
+        <x:v>48.6398</x:v>
       </x:c>
       <x:c r="D7" s="1">
-        <x:v>43.8818</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B8" s="0">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="C8" s="1">
-        <x:v>124.175</x:v>
-      </x:c>
-      <x:c r="D8" s="1">
-        <x:v>36.1575</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B9" s="0">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="C9" s="1">
-        <x:v>3.5021</x:v>
-      </x:c>
-      <x:c r="D9" s="1">
-        <x:v>6.4213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="0">
-        <x:v>843</x:v>
-      </x:c>
-      <x:c r="C10" s="1">
-        <x:v>44.559</x:v>
-      </x:c>
-      <x:c r="D10" s="1">
-        <x:v>15.3378</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B11" s="0">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="C11" s="1">
-        <x:v>115.1697</x:v>
-      </x:c>
-      <x:c r="D11" s="1">
-        <x:v>37.7123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="A12" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B12" s="0">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="C12" s="1">
-        <x:v>4.1566</x:v>
-      </x:c>
-      <x:c r="D12" s="1">
-        <x:v>3.7436</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="A13" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B13" s="0">
-        <x:v>843</x:v>
-      </x:c>
-      <x:c r="C13" s="1">
-        <x:v>53.0933</x:v>
-      </x:c>
-      <x:c r="D13" s="1">
-        <x:v>70.1059</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="A14" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B14" s="0">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="C14" s="1">
-        <x:v>118.1541</x:v>
-      </x:c>
-      <x:c r="D14" s="1">
-        <x:v>65.0152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="A15" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B15" s="0">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="C15" s="1">
-        <x:v>3.9459</x:v>
-      </x:c>
-      <x:c r="D15" s="1">
-        <x:v>5.3768</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="A16" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B16" s="0">
-        <x:v>843</x:v>
-      </x:c>
-      <x:c r="C16" s="1">
-        <x:v>73.2092</x:v>
-      </x:c>
-      <x:c r="D16" s="1">
-        <x:v>20.935</x:v>
+        <x:v>26.2325</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
